--- a/partie2.xlsx
+++ b/partie2.xlsx
@@ -3,24 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BD2179-8250-46C5-A180-FAEF84F79051}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{D11B371B-7D32-42D7-8F37-F54D9121EEF7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,13 +354,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
